--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$71</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,9 +450,6 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for this issue</t>
-  </si>
-  <si>
     <t>Business identifier for this issue.</t>
   </si>
   <si>
@@ -518,7 +512,7 @@
     <t>ClinicalUseDefinition.status</t>
   </si>
   <si>
-    <t>Whether this is a current issue or one that has been retired etc</t>
+    <t>Whether this is a current issue or one that has been retired</t>
   </si>
   <si>
     <t>Whether this is a current issue or one that has been retired etc.</t>
@@ -748,7 +742,7 @@
     <t>Reference to a concept (by class)</t>
   </si>
   <si>
-    <t>A reference to a concept - e.g. the information is identified by it's general classto the degree of precision found in the terminology.</t>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
     <t>CodeableReference.concept</t>
@@ -1197,21 +1191,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1543,7 +1522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1649,7 +1628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1757,7 +1736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -1863,7 +1842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -1971,7 +1950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2079,7 +2058,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2187,7 +2166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -2295,7 +2274,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -2403,7 +2382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2513,7 +2492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -2544,7 +2523,7 @@
         <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2610,18 +2589,18 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2647,10 +2626,10 @@
         <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2662,29 +2641,29 @@
         <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W12" t="s" s="2">
+      <c r="X12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2701,7 +2680,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>81</v>
@@ -2716,18 +2695,18 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
-      <c r="A13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2750,13 +2729,13 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2807,7 +2786,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2822,7 +2801,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>71</v>
@@ -2831,9 +2810,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2856,13 +2835,13 @@
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2913,7 +2892,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2928,18 +2907,18 @@
         <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2962,13 +2941,13 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3019,7 +2998,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -3034,7 +3013,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>71</v>
@@ -3043,9 +3022,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3068,13 +3047,13 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3125,7 +3104,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3140,18 +3119,18 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3177,10 +3156,10 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3231,7 +3210,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3252,12 +3231,12 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3286,7 +3265,7 @@
         <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>130</v>
@@ -3339,7 +3318,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3360,16 +3339,16 @@
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3391,10 +3370,10 @@
         <v>127</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>130</v>
@@ -3449,7 +3428,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3473,9 +3452,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3498,13 +3477,13 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3555,7 +3534,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3570,18 +3549,18 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3604,13 +3583,13 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3661,7 +3640,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3676,18 +3655,18 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3710,13 +3689,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3767,7 +3746,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3782,18 +3761,18 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3816,13 +3795,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3873,7 +3852,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3888,18 +3867,18 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3922,13 +3901,13 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3979,7 +3958,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3994,18 +3973,18 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4031,10 +4010,10 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4085,7 +4064,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4106,12 +4085,12 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4140,7 +4119,7 @@
         <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>130</v>
@@ -4193,7 +4172,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4214,16 +4193,16 @@
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4245,10 +4224,10 @@
         <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>130</v>
@@ -4303,7 +4282,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4327,9 +4306,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4352,13 +4331,13 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4388,11 +4367,11 @@
         <v>105</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4409,7 +4388,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>81</v>
@@ -4424,18 +4403,18 @@
         <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4458,13 +4437,13 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4515,7 +4494,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>81</v>
@@ -4530,18 +4509,18 @@
         <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4564,13 +4543,13 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4621,7 +4600,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4636,18 +4615,18 @@
         <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4673,10 +4652,10 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4727,7 +4706,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4748,12 +4727,12 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4782,7 +4761,7 @@
         <v>128</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>130</v>
@@ -4835,7 +4814,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4856,16 +4835,16 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4887,10 +4866,10 @@
         <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>130</v>
@@ -4945,7 +4924,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4969,9 +4948,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4994,13 +4973,13 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5051,7 +5030,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5066,18 +5045,18 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5100,13 +5079,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5157,7 +5136,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5178,12 +5157,12 @@
         <v>71</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5212,7 +5191,7 @@
         <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>130</v>
@@ -5253,19 +5232,19 @@
         <v>71</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AC36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AE36" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5286,12 +5265,12 @@
         <v>71</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5305,7 +5284,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>71</v>
@@ -5314,13 +5293,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5371,7 +5350,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5395,9 +5374,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5420,13 +5399,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5477,7 +5456,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5501,9 +5480,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5526,13 +5505,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5583,7 +5562,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5598,18 +5577,18 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5632,13 +5611,13 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5689,7 +5668,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5704,18 +5683,18 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5738,13 +5717,13 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5795,7 +5774,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5810,18 +5789,18 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5844,13 +5823,13 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5901,7 +5880,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5916,18 +5895,18 @@
         <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5950,13 +5929,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6007,7 +5986,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6022,18 +6001,18 @@
         <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6059,10 +6038,10 @@
         <v>71</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6113,7 +6092,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6128,18 +6107,18 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6162,13 +6141,13 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6219,7 +6198,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6234,18 +6213,18 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6271,10 +6250,10 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6325,7 +6304,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6346,12 +6325,12 @@
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6380,7 +6359,7 @@
         <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>130</v>
@@ -6433,7 +6412,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6454,16 +6433,16 @@
         <v>71</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6485,10 +6464,10 @@
         <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>130</v>
@@ -6543,7 +6522,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6567,9 +6546,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6592,13 +6571,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6649,7 +6628,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6664,18 +6643,18 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6701,10 +6680,10 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6755,7 +6734,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6776,12 +6755,12 @@
         <v>71</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6810,7 +6789,7 @@
         <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>130</v>
@@ -6863,7 +6842,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6884,16 +6863,16 @@
         <v>71</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6915,10 +6894,10 @@
         <v>127</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>130</v>
@@ -6973,7 +6952,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6997,9 +6976,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7022,13 +7001,13 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7079,7 +7058,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>81</v>
@@ -7094,7 +7073,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7103,9 +7082,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7128,13 +7107,13 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7185,7 +7164,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7200,18 +7179,18 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7234,13 +7213,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7291,7 +7270,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7306,18 +7285,18 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7340,13 +7319,13 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7397,7 +7376,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7412,18 +7391,18 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7446,13 +7425,13 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7503,7 +7482,7 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -7518,18 +7497,18 @@
         <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7552,13 +7531,13 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7609,7 +7588,7 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -7624,18 +7603,18 @@
         <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7658,13 +7637,13 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7715,7 +7694,7 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>72</v>
@@ -7730,18 +7709,18 @@
         <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7767,10 +7746,10 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7821,7 +7800,7 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -7842,12 +7821,12 @@
         <v>71</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7876,7 +7855,7 @@
         <v>128</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>130</v>
@@ -7929,7 +7908,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -7950,16 +7929,16 @@
         <v>71</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7981,10 +7960,10 @@
         <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>130</v>
@@ -8039,7 +8018,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -8063,9 +8042,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8088,13 +8067,13 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8145,7 +8124,7 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
@@ -8160,18 +8139,18 @@
         <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8194,13 +8173,13 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8251,7 +8230,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8266,18 +8245,18 @@
         <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8300,13 +8279,13 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8357,7 +8336,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8372,18 +8351,18 @@
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8406,13 +8385,13 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8463,7 +8442,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -8478,7 +8457,7 @@
         <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>71</v>
@@ -8487,9 +8466,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8515,10 +8494,10 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8569,7 +8548,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -8590,12 +8569,12 @@
         <v>71</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8624,7 +8603,7 @@
         <v>128</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>130</v>
@@ -8677,7 +8656,7 @@
         <v>71</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -8698,16 +8677,16 @@
         <v>71</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8729,10 +8708,10 @@
         <v>127</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>130</v>
@@ -8787,7 +8766,7 @@
         <v>71</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
@@ -8811,9 +8790,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8836,13 +8815,13 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8893,7 +8872,7 @@
         <v>71</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>72</v>
@@ -8908,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>71</v>
@@ -8917,9 +8896,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8942,13 +8921,13 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8975,14 +8954,14 @@
         <v>71</v>
       </c>
       <c r="W71" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="X71" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="X71" t="s" s="2">
+      <c r="Y71" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>71</v>
       </c>
@@ -8999,7 +8978,7 @@
         <v>71</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>72</v>
@@ -9014,7 +8993,7 @@
         <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>71</v>
@@ -9024,24 +9003,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL71">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,10 +471,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Overall defining type of this clinical use definition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|4.6.0</t>
+    <t>Overall defining type of this clinical use issue.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-issue-type|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>(the type of IDMP class, out of Contraindication, Therapeutic Indication, Interactions, Undesirable Effects)</t>
@@ -742,7 +742,7 @@
     <t>Reference to a concept (by class)</t>
   </si>
   <si>
-    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+    <t>A reference to a concept - e.g. the information is identified by it's general classto the degree of precision found in the terminology.</t>
   </si>
   <si>
     <t>CodeableReference.concept</t>
@@ -1390,7 +1390,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="81.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1367,43 +1367,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="225.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="81.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="81.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="64.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.8125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.81640625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-indication-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-indication-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,7 +496,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-indication-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
